--- a/산출물/기능사항정의서_유선영.xlsx
+++ b/산출물/기능사항정의서_유선영.xlsx
@@ -1,33 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\synchronization-master\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CF5E0F-FEE9-4BF8-91CC-ABE374C5E818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="121">
-  <si>
-    <t xml:space="preserve"> - 검색버튼을 누르면 검색창이 크게 출력되며 selectBox에 지역을 선택하고 
-    검색하면 지역에 해당하는 산이 list형식으로 출력됨
-   ㆍ지역을 선택하고 산이름을 검색하면 지역에 해당하는 산만 출력되게되며,
-      지역에 포함되어 있지 않은 산인 경우에는 아무산도 출력되지 않음
- - 출력시에 대표이미지 한 개와 산의 명칭 산의 추천수가 같이 출력되며 
-    paging으로 10개씩 나누어 출력함</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="122">
   <si>
     <t xml:space="preserve"> - springSecurity의 principal객체와 등록자의 id를 비교하여 등록자와 
     객체가 맞는 경우에만 삭제</t>
@@ -56,21 +60,6 @@
       → 비공개 : 자신만 열람 가능 </t>
   </si>
   <si>
-    <t xml:space="preserve"> - 검색버튼을 누르면 검색창이 크게 출력되며 selectBox에 지역을 선택하고 
-    산을 검색하면 지역에 해당하는 산이 출력됨
-   ㆍ지역을 선택하지 않고 산이름을 검색 하여도 산에대한 정보가 출력됨
- - 출력시에 대표이미지 한 개와 산의 명칭 산의 추천수가 같이 출력됨
-   (단일출력)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 인기모임 순위는 조회수가 가장 많은 모임을 기준으로 1~3위의 순번을 
-    통해 조회함
- - 대표이미지 1개와 제목, 내용을 한 행에 표시하며 더보기 버튼을 누르면
-    게시판 조회로 이동하게 됨
- - 이달의 최고 등산러 조회는 이달기준으로 가장 뱃지가 많은 회원순으로 3명
-    조회</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - 자신이 등록한 게시물을 조회 할 수 있음
    ㆍ이미지와 게시물을 조회할 수 있음
       →이미지는 슬라이드 형식으로 조회 됨
@@ -135,18 +124,6 @@
     <t xml:space="preserve"> - 마이페이지의 나의 게시물 조회에서 게시물 삭제 가능</t>
   </si>
   <si>
-    <t xml:space="preserve"> - 친구요청 탭을 눌러 친구요청을 조회할 수 있음
-   ㆍdataTable.js를 사용하여 조회하며 목록은 10개씩 보여줌
- - 친구요청 목록의 오른쪽에 요청수락, 거절 버튼으로 회원이 선택함
-   ㆍ수락 버튼을 클릭시 친구목록 최상위에 추가 됨
-   ㆍ거절 버튼을 클릭시 친구요청이 거절 됨</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 검색된 데이터중 산의 이미지나 산의 명칭을 클릭 하면 산의 상세한 정보가 
-    출력됨
-   ㆍ정보(3장의 이미지와, 산의 높이, 산의 상세설명)</t>
-  </si>
-  <si>
     <t>게시물</t>
   </si>
   <si>
@@ -180,9 +157,6 @@
     <t>web</t>
   </si>
   <si>
-    <t>산조회</t>
-  </si>
-  <si>
     <t>알람</t>
   </si>
   <si>
@@ -198,24 +172,12 @@
     <t>P-001-002</t>
   </si>
   <si>
-    <t>P-001-003</t>
-  </si>
-  <si>
-    <t>S-001-002</t>
-  </si>
-  <si>
     <t>C-001-001</t>
   </si>
   <si>
-    <t>S-001-004</t>
-  </si>
-  <si>
     <t>B-002-003</t>
   </si>
   <si>
-    <t>S-001-003</t>
-  </si>
-  <si>
     <t>B-002-004</t>
   </si>
   <si>
@@ -291,9 +253,6 @@
     <t>모집 게시판 수정</t>
   </si>
   <si>
-    <t>S-001-001</t>
-  </si>
-  <si>
     <t>모집 게시판 조회</t>
   </si>
   <si>
@@ -315,9 +274,6 @@
     <t>요구사항ID</t>
   </si>
   <si>
-    <t>B-001</t>
-  </si>
-  <si>
     <t>기능 설명</t>
   </si>
   <si>
@@ -346,9 +302,6 @@
   </si>
   <si>
     <t>기능 ID</t>
-  </si>
-  <si>
-    <t>S-001</t>
   </si>
   <si>
     <t>게시판 등록</t>
@@ -456,11 +409,79 @@
  - 등록버튼을 누르면 선택한 산의 정보가 게시판에 등록됨 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> - 오른쪽 지도에 전국의 행정구역이 출력되며 지역을 마우스로 클릭하여 선택 
+    할 수 있고 지역을 선택시 지역에 해당하는 산의 list가 출력됨
+   ㆍ지역을 선택하고 산이름을 검색하면 지역에 해당하는 산만 출력되게되며,
+      지역에 포함되어 있지 않은 산인 경우에는 아무산도 출력되지 않음
+ - 출력시에 paging으로 10개씩 나누어 출력함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 인기모임 순위는 조회수가 가장 많은 모임을 기준으로 1~3위의 순번을 
+    통해 조회함
+ - 대표이미지 1개와 제목, 내용을 한 행에 표시하며 더보기 버튼을 누르면
+    게시판 조회로 이동하게 됨
+ - 이달의 최고 등산러 조회는 이달기준으로 가장 뱃지가 많은 회원순으로 3명
+    조회</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - list중 산을 선택하면 산에 대한 사진과 등산로가 출력되게 되며 산을 선택시
+    산 선택 input 태그에 등록됨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>산 선택</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 선택</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-001-005</t>
+  </si>
+  <si>
+    <t>B-001-006</t>
+  </si>
+  <si>
+    <t>S-001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S-001-001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>순위조회</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P-001-003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 친구요청 탭을 눌러 친구요청을 조회할 수 있음
+   ㆍdataTable.js를 사용하여 조회하며 목록은 10개씩 보여줌
+ - 친구요청 목록의 오른쪽에 요청수락, 거절 버튼으로 회원이 선택함
+   ㆍ수락 버튼을 클릭시 친구목록 최상위에 추가 됨
+   ㆍ거절 버튼을 클릭시 친구요청이 거절 됨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -749,15 +770,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -777,6 +792,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1080,12 +1101,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:O30"/>
+  <dimension ref="A2:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1105,1114 +1126,1073 @@
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:15" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="O2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="15" t="s">
+    </row>
+    <row r="3" spans="1:15" ht="81" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="81" x14ac:dyDescent="0.3">
-      <c r="A3" s="20">
-        <v>1</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="L3" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="18"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>112</v>
+      </c>
       <c r="C4" s="4" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="81" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="K5" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="21"/>
       <c r="B6" s="18"/>
       <c r="C6" s="4" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>106</v>
+        <v>92</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="8"/>
+        <v>108</v>
+      </c>
+      <c r="J6" s="6"/>
       <c r="K6" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="20">
-        <v>2</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>72</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>85</v>
+        <v>92</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="94.5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="21"/>
       <c r="B8" s="18"/>
-      <c r="C8" s="8" t="s">
-        <v>73</v>
+      <c r="C8" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="J8" s="5" t="s">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="27" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="18"/>
-      <c r="C9" s="8" t="s">
-        <v>70</v>
+      <c r="C9" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>86</v>
+        <v>92</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="27" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="8" t="s">
-        <v>68</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="81" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
+        <v>3</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="J10" s="6"/>
       <c r="K10" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="81" x14ac:dyDescent="0.3">
-      <c r="A11" s="20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="121.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="6"/>
+      <c r="J11" s="5"/>
       <c r="K11" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="121.5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
       <c r="B12" s="18"/>
-      <c r="C12" s="8" t="s">
-        <v>107</v>
+      <c r="C12" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>107</v>
+        <v>18</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="8" t="s">
-        <v>108</v>
+      <c r="C13" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>108</v>
+        <v>18</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="8" t="s">
-        <v>109</v>
+      <c r="A14" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>109</v>
+        <v>99</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="J14" s="6"/>
       <c r="K14" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="20">
-        <v>4</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>93</v>
+      <c r="A15" s="21"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>93</v>
+        <v>99</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
       <c r="B16" s="24"/>
-      <c r="C16" s="8" t="s">
-        <v>62</v>
+      <c r="C16" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>62</v>
+        <v>99</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="27" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
       <c r="B17" s="24"/>
-      <c r="C17" s="8" t="s">
-        <v>66</v>
+      <c r="C17" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>66</v>
+        <v>99</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="8" t="s">
-        <v>95</v>
+      <c r="C18" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>95</v>
+        <v>99</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
       <c r="B19" s="24"/>
-      <c r="C19" s="8" t="s">
-        <v>96</v>
+      <c r="C19" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>96</v>
+        <v>29</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="81" x14ac:dyDescent="0.3">
       <c r="A20" s="21"/>
       <c r="B20" s="24"/>
-      <c r="C20" s="8" t="s">
-        <v>99</v>
+      <c r="C20" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>99</v>
+        <v>26</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="81" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="8" t="s">
-        <v>102</v>
+      <c r="C21" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>102</v>
+        <v>26</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="81" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="8" t="s">
-        <v>98</v>
+      <c r="C22" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>98</v>
+        <v>26</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N22" s="4"/>
       <c r="O22" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="8" t="s">
-        <v>52</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>52</v>
+        <v>18</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="54" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="8" t="s">
-        <v>104</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>5</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>104</v>
+        <v>57</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="81" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N25" s="4"/>
       <c r="O25" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="81" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>6</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>92</v>
+      <c r="A26" s="20">
+        <v>7</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>92</v>
+        <v>101</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="4" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="81" x14ac:dyDescent="0.3">
-      <c r="A27" s="20">
-        <v>7</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>103</v>
-      </c>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="26"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>114</v>
+        <v>54</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="6"/>
-      <c r="K27" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N27" s="4"/>
-      <c r="O27" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="12"/>
-      <c r="K28" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="N28" s="9"/>
-      <c r="O28" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>54</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="10"/>
+      <c r="K27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="8"/>
+      <c r="O27" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B15:B24"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="A27:A28"/>
+  <mergeCells count="8">
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="A14:A23"/>
+    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/산출물/기능사항정의서_유선영.xlsx
+++ b/산출물/기능사항정의서_유선영.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\synchronization-master\산출물\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crown\Desktop\mountain_project\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CF5E0F-FEE9-4BF8-91CC-ABE374C5E818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5363EF-E5D4-4775-BF16-4596350F533E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="127">
   <si>
     <t xml:space="preserve"> - springSecurity의 principal객체와 등록자의 id를 비교하여 등록자와 
     객체가 맞는 경우에만 삭제</t>
@@ -475,6 +475,27 @@
  - 친구요청 목록의 오른쪽에 요청수락, 거절 버튼으로 회원이 선택함
    ㆍ수락 버튼을 클릭시 친구목록 최상위에 추가 됨
    ㆍ거절 버튼을 클릭시 친구요청이 거절 됨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역통계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대시보드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S-001-002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 지역별로 회원이 많이 등산한  산을 지도에 통계로 색깔을 그라데이션으로 표시
+   하여 조회</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -797,7 +818,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1103,30 +1124,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:O29"/>
+  <dimension ref="A2:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.09765625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8984375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="15.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="68" style="2" customWidth="1"/>
-    <col min="10" max="10" width="59.375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.3984375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="9" style="2"/>
     <col min="15" max="15" width="9" style="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
@@ -1173,11 +1194,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="81" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="23" t="s">
         <v>116</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1216,57 +1237,49 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
+    <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A4" s="17"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="20">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B5" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>31</v>
@@ -1275,17 +1288,15 @@
         <v>92</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>107</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="J5" s="6"/>
       <c r="K5" s="4" t="s">
         <v>84</v>
       </c>
@@ -1300,14 +1311,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A6" s="21"/>
       <c r="B6" s="18"/>
       <c r="C6" s="4" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>31</v>
@@ -1316,15 +1327,17 @@
         <v>92</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="J6" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="K6" s="4" t="s">
         <v>84</v>
       </c>
@@ -1339,14 +1352,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="72" x14ac:dyDescent="0.4">
       <c r="A7" s="21"/>
       <c r="B7" s="18"/>
       <c r="C7" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>31</v>
@@ -1355,13 +1368,13 @@
         <v>92</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="4" t="s">
@@ -1378,14 +1391,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A8" s="21"/>
       <c r="B8" s="18"/>
       <c r="C8" s="4" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>31</v>
@@ -1394,17 +1407,15 @@
         <v>92</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>1</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="J8" s="6"/>
       <c r="K8" s="4" t="s">
         <v>84</v>
       </c>
@@ -1419,14 +1430,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="27" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A9" s="21"/>
       <c r="B9" s="18"/>
       <c r="C9" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>31</v>
@@ -1435,16 +1446,16 @@
         <v>92</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>84</v>
@@ -1460,35 +1471,33 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="81" x14ac:dyDescent="0.3">
-      <c r="A10" s="20">
-        <v>3</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>88</v>
-      </c>
+    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A10" s="22"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="4" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="K10" s="4" t="s">
         <v>84</v>
       </c>
@@ -1503,14 +1512,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="121.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="18"/>
+    <row r="11" spans="1:15" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A11" s="20">
+        <v>3</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>88</v>
+      </c>
       <c r="C11" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>31</v>
@@ -1519,15 +1532,15 @@
         <v>18</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="J11" s="6"/>
       <c r="K11" s="4" t="s">
         <v>84</v>
       </c>
@@ -1542,14 +1555,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="129.6" x14ac:dyDescent="0.4">
       <c r="A12" s="21"/>
       <c r="B12" s="18"/>
       <c r="C12" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>31</v>
@@ -1558,13 +1571,13 @@
         <v>18</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="4" t="s">
@@ -1581,14 +1594,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="21"/>
       <c r="B13" s="18"/>
       <c r="C13" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>31</v>
@@ -1597,13 +1610,13 @@
         <v>18</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="4" t="s">
@@ -1620,35 +1633,31 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>98</v>
-      </c>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="22"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="4" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="J14" s="5"/>
       <c r="K14" s="4" t="s">
         <v>84</v>
       </c>
@@ -1663,14 +1672,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="24"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>98</v>
+      </c>
       <c r="C15" s="4" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>97</v>
@@ -1679,13 +1692,13 @@
         <v>99</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="4" t="s">
@@ -1702,14 +1715,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="21"/>
       <c r="B16" s="24"/>
       <c r="C16" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>97</v>
@@ -1718,10 +1731,10 @@
         <v>99</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>15</v>
@@ -1741,14 +1754,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="21"/>
       <c r="B17" s="24"/>
       <c r="C17" s="4" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>97</v>
@@ -1757,13 +1770,13 @@
         <v>99</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="4" t="s">
@@ -1780,14 +1793,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A18" s="21"/>
       <c r="B18" s="24"/>
       <c r="C18" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>97</v>
@@ -1796,13 +1809,13 @@
         <v>99</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="4" t="s">
@@ -1819,29 +1832,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="21"/>
       <c r="B19" s="24"/>
       <c r="C19" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>97</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="4" t="s">
@@ -1858,29 +1871,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="81" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A20" s="21"/>
       <c r="B20" s="24"/>
       <c r="C20" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>97</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="4" t="s">
@@ -1897,14 +1910,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="81" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A21" s="21"/>
       <c r="B21" s="24"/>
       <c r="C21" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>97</v>
@@ -1913,13 +1926,13 @@
         <v>26</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="4" t="s">
@@ -1936,14 +1949,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A22" s="21"/>
       <c r="B22" s="24"/>
       <c r="C22" s="4" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>97</v>
@@ -1952,13 +1965,13 @@
         <v>26</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="4" t="s">
@@ -1975,29 +1988,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="54" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="25"/>
+    <row r="23" spans="1:15" ht="72" x14ac:dyDescent="0.4">
+      <c r="A23" s="21"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="4" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>97</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="4" t="s">
@@ -2014,33 +2027,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>5</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>100</v>
-      </c>
+    <row r="24" spans="1:15" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A24" s="22"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="4" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="4" t="s">
@@ -2057,33 +2066,33 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="81" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="4" t="s">
@@ -2100,37 +2109,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="81" x14ac:dyDescent="0.3">
-      <c r="A26" s="20">
-        <v>7</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>90</v>
+    <row r="26" spans="1:15" ht="57.6" x14ac:dyDescent="0.4">
+      <c r="A26" s="3">
+        <v>6</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="4" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>28</v>
@@ -2143,56 +2152,100 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="8" t="s">
+    <row r="27" spans="1:15" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A27" s="20">
+        <v>7</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="4"/>
+      <c r="O27" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="26"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D28" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E28" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F28" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G28" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H28" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J27" s="10"/>
-      <c r="K27" s="8" t="s">
+      <c r="J28" s="10"/>
+      <c r="K28" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="L27" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N27" s="8"/>
-      <c r="O27" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="L28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="8"/>
+      <c r="O28" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="A14:A23"/>
-    <mergeCell ref="A26:A27"/>
+  <mergeCells count="9">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B15:B24"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
